--- a/data/trans_orig/Predimed-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Clase-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.468090510766047</v>
+        <v>6.44712442412064</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.666737433161905</v>
+        <v>6.671052763263095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.623935103095459</v>
+        <v>6.60870605760588</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.873186352258157</v>
+        <v>6.891010506821302</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.044561197817873</v>
+        <v>7.023642179763082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.888157877272654</v>
+        <v>6.902174019407182</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.18165480304542</v>
+        <v>6.171849894832765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.533360164681688</v>
+        <v>6.531856809203592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.407660002155189</v>
+        <v>6.423113059230831</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.689656819952788</v>
+        <v>6.636388726210645</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.933830114850791</v>
+        <v>6.951067594885485</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.7296378234989</v>
+        <v>6.731895635458601</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6.445777253648654</v>
+        <v>6.445777253648655</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>6.805575070651234</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.547951908248171</v>
+        <v>6.54795190824817</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.210999108583951</v>
+        <v>6.226631356122066</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.524019756157797</v>
+        <v>6.521890138974326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.36418088894061</v>
+        <v>6.377435026997493</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.678868548349055</v>
+        <v>6.702733317863034</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.114064072100058</v>
+        <v>7.143304539931269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.728099713872408</v>
+        <v>6.73657954718741</v>
       </c>
     </row>
     <row r="13">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>6.418880142563402</v>
+        <v>6.418880142563403</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.603423499931911</v>
+        <v>6.603423499931909</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>6.499891311862195</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.25263978920075</v>
+        <v>6.251219042876762</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.446906248473469</v>
+        <v>6.46236953460292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.385052137595892</v>
+        <v>6.388245339050938</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.586351572361894</v>
+        <v>6.577697725995688</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.743879661768652</v>
+        <v>6.751676441455867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.615443506311733</v>
+        <v>6.612708250752656</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.056425204532362</v>
+        <v>6.056425204532363</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.311803446829878</v>
+        <v>6.311803446829879</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>6.2095051304344</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.840778964503416</v>
+        <v>5.857131196642523</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.147618528297268</v>
+        <v>6.175598640179458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.094690420892058</v>
+        <v>6.076294546924599</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.297245930787813</v>
+        <v>6.269070620441364</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.44551020526414</v>
+        <v>6.4564750771934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.340987408383363</v>
+        <v>6.335773012789359</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>5.654869879748532</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>5.746419826458366</v>
+        <v>5.746419826458363</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>5.727681396844476</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.19167520294688</v>
+        <v>5.234265315977964</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.586025270068959</v>
+        <v>5.581971436649825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.589276451699896</v>
+        <v>5.573336344180636</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.075064337761649</v>
+        <v>6.11600377647317</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.917191606665755</v>
+        <v>5.906705723093221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.863959111824429</v>
+        <v>5.88405081259655</v>
       </c>
     </row>
     <row r="22">
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>6.358157652278981</v>
+        <v>6.35815765227898</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>6.40631856947194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.383088991700975</v>
+        <v>6.383088991700974</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.265949141813163</v>
+        <v>6.265536011629823</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.331368818136159</v>
+        <v>6.331118535824866</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.315048988682448</v>
+        <v>6.326999539576289</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.454025613627168</v>
+        <v>6.451681116559093</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.479550524893616</v>
+        <v>6.476785985528362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.437970952892956</v>
+        <v>6.444013784160882</v>
       </c>
     </row>
     <row r="25">
